--- a/guo/bill.xlsx
+++ b/guo/bill.xlsx
@@ -385,7 +385,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -408,6 +408,9 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="C2">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/guo/bill.xlsx
+++ b/guo/bill.xlsx
@@ -24,10 +24,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>17.6.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>其他支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -35,12 +31,16 @@
     <t>其他收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +50,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -76,8 +94,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -382,34 +409,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1">
         <v>23</v>
+      </c>
+      <c r="F2" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/guo/bill.xlsx
+++ b/guo/bill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>买菜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,6 +33,10 @@
   </si>
   <si>
     <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,9 +415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -421,8 +423,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>6</v>
+      <c r="A1" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -495,6 +497,15 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>26</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>16.5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">

--- a/guo/bill.xlsx
+++ b/guo/bill.xlsx
@@ -415,7 +415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -512,6 +514,12 @@
       <c r="A11" s="1">
         <v>27</v>
       </c>
+      <c r="D11" s="1">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">

--- a/guo/bill.xlsx
+++ b/guo/bill.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -525,10 +525,31 @@
       <c r="A12" s="1">
         <v>28</v>
       </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>29</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/guo/bill.xlsx
+++ b/guo/bill.xlsx
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -552,6 +552,56 @@
         <v>9</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>560</v>
+      </c>
+      <c r="F15" s="1">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/guo/bill.xlsx
+++ b/guo/bill.xlsx
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -602,6 +602,26 @@
         <v>10</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1">
+        <v>20</v>
+      </c>
+      <c r="F18" s="1">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/guo/bill.xlsx
+++ b/guo/bill.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -616,7 +616,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="1">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="F18" s="1">
         <v>22</v>

--- a/guo/bill.xlsx
+++ b/guo/bill.xlsx
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -622,6 +622,20 @@
         <v>22</v>
       </c>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/guo/bill.xlsx
+++ b/guo/bill.xlsx
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -636,6 +636,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6</v>
+      </c>
+      <c r="F20" s="1">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/guo/bill.xlsx
+++ b/guo/bill.xlsx
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -650,6 +650,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/guo/bill.xlsx
+++ b/guo/bill.xlsx
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -661,6 +661,20 @@
         <v>10.5</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/guo/bill.xlsx
+++ b/guo/bill.xlsx
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -675,6 +675,20 @@
         <v>16.600000000000001</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10.8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/guo/bill.xlsx
+++ b/guo/bill.xlsx
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -689,6 +689,30 @@
         <v>10.8</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="F25" s="1">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="F26" s="1">
+        <v>15.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/guo/bill.xlsx
+++ b/guo/bill.xlsx
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -713,6 +713,25 @@
         <v>15.5</v>
       </c>
     </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="F27" s="1">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>24.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
